--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$41</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
   <si>
     <t>Processo</t>
   </si>
@@ -45,10 +48,10 @@
     <t>Data distribuição</t>
   </si>
   <si>
-    <t>5216394-82.2022.8.21.0001</t>
-  </si>
-  <si>
-    <t>5047561-72.2020.8.21.0001</t>
+    <t>5029547-06.2022.8.21.0022</t>
+  </si>
+  <si>
+    <t>5007960-93.2020.8.21.0022</t>
   </si>
   <si>
     <t>Originário</t>
@@ -63,484 +66,292 @@
     <t>Sem dados de processo originário 3</t>
   </si>
   <si>
-    <t>02/12/2022</t>
-  </si>
-  <si>
-    <t>5164586-38.2022.8.21.0001</t>
-  </si>
-  <si>
-    <t>5006043-05.2020.8.21.0001</t>
-  </si>
-  <si>
-    <t>16/09/2022</t>
-  </si>
-  <si>
-    <t>5009222-59.2011.8.21.0001</t>
-  </si>
-  <si>
-    <t>0324997-29.2011.8.21.0001</t>
+    <t>28/09/2022</t>
+  </si>
+  <si>
+    <t>5157435-21.2022.8.21.0001</t>
+  </si>
+  <si>
+    <t>5032648-85.2020.8.21.0001</t>
+  </si>
+  <si>
+    <t>05/09/2022</t>
+  </si>
+  <si>
+    <t>5006597-19.2022.8.21.0049</t>
+  </si>
+  <si>
+    <t>5002821-79.2020.8.21.0049</t>
+  </si>
+  <si>
+    <t>14/10/2022</t>
+  </si>
+  <si>
+    <t>5016888-82.2009.8.21.0001</t>
+  </si>
+  <si>
+    <t>1252391-54.2009.8.21.0001</t>
   </si>
   <si>
     <t>Digitalizado</t>
   </si>
   <si>
-    <t>16/09/2011</t>
-  </si>
-  <si>
-    <t>5011355-74.2011.8.21.0001</t>
-  </si>
-  <si>
-    <t>0301050-43.2011.8.21.0001</t>
-  </si>
-  <si>
-    <t>15/08/2011</t>
-  </si>
-  <si>
-    <t>5164293-68.2022.8.21.0001</t>
-  </si>
-  <si>
-    <t>5052584-96.2020.8.21.0001</t>
-  </si>
-  <si>
-    <t>5034678-11.2011.8.21.0001</t>
-  </si>
-  <si>
-    <t>0366891-82.2011.8.21.0001</t>
-  </si>
-  <si>
-    <t>21/10/2011</t>
-  </si>
-  <si>
-    <t>5005050-83.2017.8.21.0027</t>
-  </si>
-  <si>
-    <t>9006750-26.2017.8.21.0027</t>
+    <t>30/04/2009</t>
+  </si>
+  <si>
+    <t>5167764-92.2022.8.21.0001</t>
+  </si>
+  <si>
+    <t>5029537-93.2020.8.21.0001</t>
+  </si>
+  <si>
+    <t>22/09/2022</t>
+  </si>
+  <si>
+    <t>5172099-57.2022.8.21.0001</t>
+  </si>
+  <si>
+    <t>5032767-46.2020.8.21.0001</t>
+  </si>
+  <si>
+    <t>5030909-28.2022.8.21.0027</t>
+  </si>
+  <si>
+    <t>5004621-14.2020.8.21.0027</t>
+  </si>
+  <si>
+    <t>15/09/2022</t>
+  </si>
+  <si>
+    <t>5031950-45.2021.8.21.0001</t>
+  </si>
+  <si>
+    <t>Sem dados de processo originário 1</t>
+  </si>
+  <si>
+    <t>30/03/2021</t>
+  </si>
+  <si>
+    <t>5033570-92.2022.8.21.0022</t>
+  </si>
+  <si>
+    <t>5008789-45.2018.8.21.0022</t>
+  </si>
+  <si>
+    <t>28/10/2022</t>
+  </si>
+  <si>
+    <t>5001180-41.2018.8.21.0012</t>
+  </si>
+  <si>
+    <t>0013778-46.2020.8.21.9000</t>
+  </si>
+  <si>
+    <t>Relacionado na TR</t>
+  </si>
+  <si>
+    <t>9000083-35.2018.8.21.0012</t>
   </si>
   <si>
     <t>Migrado</t>
   </si>
   <si>
-    <t>11/10/2017</t>
-  </si>
-  <si>
-    <t>5005051-68.2017.8.21.0027</t>
-  </si>
-  <si>
-    <t>9006808-29.2017.8.21.0027</t>
-  </si>
-  <si>
-    <t>13/10/2017</t>
-  </si>
-  <si>
-    <t>5005049-98.2017.8.21.0027</t>
-  </si>
-  <si>
-    <t>9007658-83.2017.8.21.0027</t>
-  </si>
-  <si>
-    <t>08/11/2017</t>
-  </si>
-  <si>
-    <t>5005048-16.2017.8.21.0027</t>
-  </si>
-  <si>
-    <t>9007049-03.2017.8.21.0027</t>
-  </si>
-  <si>
-    <t>18/10/2017</t>
-  </si>
-  <si>
-    <t>5040819-16.2021.8.21.0027</t>
-  </si>
-  <si>
-    <t>9002011-68.2021.8.21.0027</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>5034672-67.2012.8.21.0001</t>
-  </si>
-  <si>
-    <t>0329535-19.2012.8.21.0001</t>
-  </si>
-  <si>
-    <t>10/10/2012</t>
-  </si>
-  <si>
-    <t>5021122-68.2013.8.21.0001</t>
-  </si>
-  <si>
-    <t>0366965-68.2013.8.21.0001</t>
-  </si>
-  <si>
-    <t>07/11/2013</t>
-  </si>
-  <si>
-    <t>5100739-96.2021.8.21.0001</t>
-  </si>
-  <si>
-    <t>5020041-40.2020.8.21.0001</t>
-  </si>
-  <si>
-    <t>5238053-39.2021.8.21.7000/T</t>
+    <t>29/01/2018</t>
+  </si>
+  <si>
+    <t>5009546-39.2018.8.21.0022</t>
+  </si>
+  <si>
+    <t>0019313-68.2022.8.21.7000/T</t>
   </si>
   <si>
     <t>Relacionado no 2o. grau</t>
   </si>
   <si>
-    <t>5158174-46.2022.8.21.7000/T</t>
-  </si>
-  <si>
-    <t>09/09/2021</t>
-  </si>
-  <si>
-    <t>5021493-03.2011.8.21.0001</t>
-  </si>
-  <si>
-    <t>0330513-30.2011.8.21.0001</t>
-  </si>
-  <si>
-    <t>19/09/2011</t>
-  </si>
-  <si>
-    <t>5001340-37.2018.8.21.0054</t>
-  </si>
-  <si>
-    <t>0010601-11.2019.8.21.9000</t>
-  </si>
-  <si>
-    <t>Relacionado na TR</t>
-  </si>
-  <si>
-    <t>9000132-47.2018.8.21.0054</t>
-  </si>
-  <si>
-    <t>12/03/2018</t>
-  </si>
-  <si>
-    <t>5015486-29.2010.8.21.0001</t>
-  </si>
-  <si>
-    <t>0476301-12.2010.8.21.0001</t>
-  </si>
-  <si>
-    <t>03/03/2010</t>
-  </si>
-  <si>
-    <t>5039762-80.2017.8.21.0001</t>
-  </si>
-  <si>
-    <t>0140217-41.2017.8.21.0001</t>
-  </si>
-  <si>
-    <t>10/10/2016</t>
-  </si>
-  <si>
-    <t>5123070-43.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>0156245-16.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>03/12/2019</t>
-  </si>
-  <si>
-    <t>5039761-95.2017.8.21.0001</t>
-  </si>
-  <si>
-    <t>0208080-14.2017.8.21.0001</t>
-  </si>
-  <si>
-    <t>14/11/2017</t>
-  </si>
-  <si>
-    <t>5111935-34.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9026683-92.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>08/05/2019</t>
-  </si>
-  <si>
-    <t>5111861-77.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9026274-19.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>07/05/2019</t>
-  </si>
-  <si>
-    <t>5111845-26.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9024067-47.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>30/04/2019</t>
-  </si>
-  <si>
-    <t>5111932-79.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9026423-15.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111929-27.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9024645-10.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>02/05/2019</t>
-  </si>
-  <si>
-    <t>5111816-73.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9029042-15.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>14/05/2019</t>
-  </si>
-  <si>
-    <t>5111835-79.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9023325-22.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>29/04/2019</t>
-  </si>
-  <si>
-    <t>5111822-80.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9030447-86.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>17/05/2019</t>
-  </si>
-  <si>
-    <t>5111790-75.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025668-88.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>06/05/2019</t>
-  </si>
-  <si>
-    <t>5111810-66.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9022457-44.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>26/04/2019</t>
-  </si>
-  <si>
-    <t>5111830-57.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9061633-30.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>27/08/2019</t>
-  </si>
-  <si>
-    <t>5111831-42.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9029579-11.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>15/05/2019</t>
-  </si>
-  <si>
-    <t>5111815-88.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9029039-60.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111787-23.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025911-32.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111799-37.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025028-85.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>03/05/2019</t>
-  </si>
-  <si>
-    <t>5111813-21.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9029035-23.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111825-35.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9026575-63.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111759-55.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9060965-59.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>23/08/2019</t>
-  </si>
-  <si>
-    <t>5111741-34.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025693-04.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111776-91.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9023851-86.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111778-61.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9061623-83.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111744-86.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025890-56.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111785-53.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025909-62.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111737-94.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025685-27.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111770-84.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9055671-26.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>05/08/2019</t>
-  </si>
-  <si>
-    <t>5111779-46.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9059856-10.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>20/08/2019</t>
-  </si>
-  <si>
-    <t>5111736-12.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9023259-42.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111739-64.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025691-34.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111745-71.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025891-41.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111764-77.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9061411-62.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>26/08/2019</t>
-  </si>
-  <si>
-    <t>5111728-35.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9025865-43.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111691-08.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9022700-85.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111708-44.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9019634-97.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>17/04/2019</t>
-  </si>
-  <si>
-    <t>5111695-45.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9021607-87.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>24/04/2019</t>
-  </si>
-  <si>
-    <t>5111699-82.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9060613-04.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>22/08/2019</t>
-  </si>
-  <si>
-    <t>5111706-74.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9023030-82.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5111705-89.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>9023029-97.2019.8.21.0001</t>
-  </si>
-  <si>
-    <t>5006914-30.2023.8.21.0001</t>
-  </si>
-  <si>
-    <t>3621331-03.2005.8.21.0001</t>
-  </si>
-  <si>
-    <t>21/12/1999</t>
+    <t>9002900-42.2018.8.21.0022</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>5016732-06.2023.8.21.0001</t>
+  </si>
+  <si>
+    <t>0022795-65.2005.8.21.0001</t>
+  </si>
+  <si>
+    <t>01/02/2023</t>
+  </si>
+  <si>
+    <t>5002010-65.2020.8.21.0067</t>
+  </si>
+  <si>
+    <t>9000544-65.2020.8.21.0067</t>
+  </si>
+  <si>
+    <t>04/11/2020</t>
+  </si>
+  <si>
+    <t>5000993-62.2018.8.21.0067</t>
+  </si>
+  <si>
+    <t>9000840-58.2018.8.21.0067</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>5033890-89.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>0380267-33.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>5033712-43.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>0314096-94.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>08/07/2011</t>
+  </si>
+  <si>
+    <t>5010009-54.2012.8.21.0001</t>
+  </si>
+  <si>
+    <t>0266239-23.2012.8.21.0001</t>
+  </si>
+  <si>
+    <t>20/08/2012</t>
+  </si>
+  <si>
+    <t>5033709-88.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>0361665-91.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>22/10/2014</t>
+  </si>
+  <si>
+    <t>5027774-33.2015.8.21.0001</t>
+  </si>
+  <si>
+    <t>0098129-56.2015.8.21.0001</t>
+  </si>
+  <si>
+    <t>28/06/2011</t>
+  </si>
+  <si>
+    <t>5033650-03.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>0352497-65.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>5012011-26.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>0192467-56.2014.8.21.0001</t>
+  </si>
+  <si>
+    <t>27/05/2014</t>
+  </si>
+  <si>
+    <t>5001222-27.2018.8.21.0130</t>
+  </si>
+  <si>
+    <t>0064994-80.2019.8.21.9000</t>
+  </si>
+  <si>
+    <t>9000291-53.2018.8.21.0130</t>
+  </si>
+  <si>
+    <t>21/05/2018</t>
+  </si>
+  <si>
+    <t>5162162-23.2022.8.21.0001</t>
+  </si>
+  <si>
+    <t>5013305-06.2020.8.21.0001</t>
+  </si>
+  <si>
+    <t>13/09/2022</t>
+  </si>
+  <si>
+    <t>5033540-72.2012.8.21.0001</t>
+  </si>
+  <si>
+    <t>0245475-16.2012.8.21.0001</t>
+  </si>
+  <si>
+    <t>16/12/2010</t>
+  </si>
+  <si>
+    <t>5028177-02.2015.8.21.0001</t>
+  </si>
+  <si>
+    <t>0104387-82.2015.8.21.0001</t>
+  </si>
+  <si>
+    <t>20/05/2014</t>
+  </si>
+  <si>
+    <t>5011672-14.2007.8.21.0001</t>
+  </si>
+  <si>
+    <t>0813081-77.2007.8.21.0001</t>
+  </si>
+  <si>
+    <t>08/05/2007</t>
+  </si>
+  <si>
+    <t>5015372-90.2010.8.21.0001</t>
+  </si>
+  <si>
+    <t>3015561-05.2010.8.21.0001</t>
+  </si>
+  <si>
+    <t>17/11/2010</t>
+  </si>
+  <si>
+    <t>5033872-05.2013.8.21.0001</t>
+  </si>
+  <si>
+    <t>0051176-05.2013.8.21.0001</t>
+  </si>
+  <si>
+    <t>15/08/2012</t>
+  </si>
+  <si>
+    <t>5015383-22.2010.8.21.0001</t>
+  </si>
+  <si>
+    <t>2549411-10.2010.8.21.0001</t>
+  </si>
+  <si>
+    <t>29/09/2010</t>
+  </si>
+  <si>
+    <t>5001283-19.2018.8.21.0054</t>
+  </si>
+  <si>
+    <t>0035364-76.2019.8.21.9000</t>
+  </si>
+  <si>
+    <t>0067901-28.2019.8.21.9000</t>
+  </si>
+  <si>
+    <t>0046745-47.2020.8.21.9000</t>
+  </si>
+  <si>
+    <t>23/03/2018</t>
   </si>
 </sst>
 </file>
@@ -903,16 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -957,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1009,22 +817,22 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1032,13 +840,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1082,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1090,13 +898,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1111,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1125,22 +933,22 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1148,28 +956,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1177,13 +985,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1198,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1206,13 +1014,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1227,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1235,13 +1043,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1256,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1264,19 +1072,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1285,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1293,28 +1101,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1322,28 +1130,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1351,28 +1159,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1380,13 +1188,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1401,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1409,19 +1217,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1430,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1438,13 +1246,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1459,7 +1267,7 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1467,13 +1275,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1488,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1496,13 +1304,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1517,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1525,13 +1333,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1546,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1554,13 +1362,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1575,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,13 +1391,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1604,7 +1412,7 @@
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1612,13 +1420,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1633,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1641,13 +1449,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1662,7 +1470,7 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1670,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1691,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1699,19 +1507,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -1720,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1728,19 +1536,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1749,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1757,13 +1565,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1778,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1786,13 +1594,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1807,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1815,13 +1623,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1836,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1844,13 +1652,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1865,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1873,13 +1681,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1894,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1902,13 +1710,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1923,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1931,13 +1739,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1952,7 +1760,7 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1960,13 +1768,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1981,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1989,13 +1797,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -2010,7 +1818,7 @@
         <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2018,13 +1826,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -2039,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2047,13 +1855,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -2068,7 +1876,7 @@
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2076,611 +1884,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" t="s">
-        <v>172</v>
-      </c>
-      <c r="D61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" t="s">
-        <v>173</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:I41"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,177 +571,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5056780-46.2019.8.21.0001</t>
+          <t>5002019-61.2019.8.21.0067</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0140462-81.2019.8.21.0001</t>
+          <t>0064471-68.2019.8.21.9000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Relacionado na TR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sem dados de processo originário 2</t>
+          <t>0042940-86.2020.8.21.9000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nulo</t>
+          <t>Relacionado na TR</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sem dados de processo originário 3</t>
+          <t>9000401-13.2019.8.21.0067</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Nulo</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14/08/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5000559-78.2019.8.21.0054</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0003337-09.2019.8.21.0054</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>03/09/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5001387-66.2023.8.21.9000</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5008039-43.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Originário</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>15/02/2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5009986-45.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0323125-76.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>14/09/2011</t>
+          <t>27/05/2019</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,42 +571,312 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5002019-61.2019.8.21.0067</t>
+          <t>5010754-58.2017.8.21.0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0064471-68.2019.8.21.9000</t>
+          <t>0196807-38.2017.8.21.0001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10/11/2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5008281-41.2013.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0087776-25.2013.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>26/12/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5001221-76.2018.8.21.0054</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0066578-85.2019.8.21.9000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Relacionado na TR</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0042940-86.2020.8.21.9000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Relacionado na TR</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>9000401-13.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9000149-83.2018.8.21.0054</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Migrado</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>27/05/2019</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>13/03/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5006432-89.2018.8.21.0023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9003986-45.2018.8.21.0023</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>31/10/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5006429-37.2018.8.21.0023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9003787-23.2018.8.21.0023</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>17/10/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5009614-96.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0420415-91.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>07/12/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5033806-25.2013.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0007850-16.2013.8.21.3001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>04/03/2013</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5082691-55.2022.8.21.0001</t>
+          <t>5029547-06.2022.8.21.0022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5125632-72.2022.8.21.7000/T</t>
+          <t>5007960-93.2020.8.21.0022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Relacionado no 2o. grau</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>23/05/2022</t>
+          <t>28/09/2022</t>
         </is>
       </c>
     </row>
@@ -526,17 +526,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5001507-82.2021.8.21.0043</t>
+          <t>5002020-12.2020.8.21.0067</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sem dados de processo originário 1</t>
+          <t>9000539-43.2020.8.21.0067</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nulo</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>03/11/2020</t>
         </is>
       </c>
     </row>
@@ -571,17 +571,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5010754-58.2017.8.21.0001</t>
+          <t>5002025-34.2020.8.21.0067</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0196807-38.2017.8.21.0001</t>
+          <t>9000434-66.2020.8.21.0067</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10/11/2017</t>
+          <t>23/09/2020</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5008281-41.2013.8.21.0001</t>
+          <t>5000995-32.2018.8.21.0067</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0087776-25.2013.8.21.0001</t>
+          <t>9000796-39.2018.8.21.0067</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>26/12/2011</t>
+          <t>27/11/2018</t>
         </is>
       </c>
     </row>
@@ -661,27 +661,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5001221-76.2018.8.21.0054</t>
+          <t>5002032-26.2020.8.21.0067</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0066578-85.2019.8.21.9000</t>
+          <t>9000450-20.2020.8.21.0067</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Relacionado na TR</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9000149-83.2018.8.21.0054</t>
+          <t>Sem dados de processo originário 2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13/03/2018</t>
+          <t>30/09/2020</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5006432-89.2018.8.21.0023</t>
+          <t>5008633-12.2022.8.21.4001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9003986-45.2018.8.21.0023</t>
+          <t>5002299-64.2019.8.21.4001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31/10/2018</t>
+          <t>14/10/2022</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5006429-37.2018.8.21.0023</t>
+          <t>5000229-27.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9003787-23.2018.8.21.0023</t>
+          <t>0420539-74.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17/10/2018</t>
+          <t>07/12/2011</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5009614-96.2011.8.21.0001</t>
+          <t>5000297-74.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0420415-91.2011.8.21.0001</t>
+          <t>0413928-08.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>07/12/2011</t>
+          <t>02/12/2011</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5033806-25.2013.8.21.0001</t>
+          <t>5000320-49.2013.8.21.0001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0007850-16.2013.8.21.3001</t>
+          <t>0044684-94.2013.8.21.0001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -876,7 +876,412 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>04/03/2013</t>
+          <t>20/02/2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5003815-38.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0023925-46.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>24/01/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5002031-41.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9000380-03.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>14/09/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5002033-11.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9000365-34.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>09/09/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5002037-48.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9000624-29.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>13/11/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5002090-63.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9001254-22.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>11/12/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5002030-56.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9000405-16.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>18/09/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5002091-48.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9001270-73.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>17/12/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5006127-55.2022.8.21.0059</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5001247-88.2020.8.21.0059</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Originário</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>19/09/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5092615-95.2019.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9015530-62.2019.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>04/04/2019</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5029547-06.2022.8.21.0022</t>
+          <t>5008633-12.2022.8.21.4001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5007960-93.2020.8.21.0022</t>
+          <t>5002299-64.2019.8.21.4001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>28/09/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
     </row>
@@ -526,17 +526,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5002020-12.2020.8.21.0067</t>
+          <t>5006127-55.2022.8.21.0059</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9000539-43.2020.8.21.0067</t>
+          <t>5001247-88.2020.8.21.0059</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>03/11/2020</t>
+          <t>19/09/2022</t>
         </is>
       </c>
     </row>
@@ -571,17 +571,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5002025-34.2020.8.21.0067</t>
+          <t>5157435-21.2022.8.21.0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9000434-66.2020.8.21.0067</t>
+          <t>5032648-85.2020.8.21.0001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>23/09/2020</t>
+          <t>05/09/2022</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5000995-32.2018.8.21.0067</t>
+          <t>5026797-60.2023.8.21.0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9000796-39.2018.8.21.0067</t>
+          <t>5030835-67.2013.8.21.0001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>27/11/2018</t>
+          <t>16/02/2023</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5002032-26.2020.8.21.0067</t>
+          <t>5035699-12.2017.8.21.0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9000450-20.2020.8.21.0067</t>
+          <t>0161621-51.2017.8.21.0001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>30/09/2020</t>
+          <t>31/08/2017</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5008633-12.2022.8.21.4001</t>
+          <t>5000273-46.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5002299-64.2019.8.21.4001</t>
+          <t>0420275-57.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Originário</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>14/10/2022</t>
+          <t>07/12/2011</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5000229-27.2011.8.21.0001</t>
+          <t>5000274-31.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0420539-74.2011.8.21.0001</t>
+          <t>0413893-48.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>07/12/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5000297-74.2011.8.21.0001</t>
+          <t>5004401-12.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0413928-08.2011.8.21.0001</t>
+          <t>0376983-22.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>02/12/2011</t>
+          <t>07/11/2011</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5000320-49.2013.8.21.0001</t>
+          <t>5000256-73.2012.8.21.0001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0044684-94.2013.8.21.0001</t>
+          <t>0023506-26.2012.8.21.0001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20/02/2013</t>
+          <t>24/01/2012</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5003815-38.2012.8.21.0001</t>
+          <t>5000271-42.2012.8.21.0001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0023925-46.2012.8.21.0001</t>
+          <t>0351565-48.2012.8.21.0001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>24/01/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
     </row>
@@ -931,17 +931,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5002031-41.2020.8.21.0067</t>
+          <t>5000293-03.2012.8.21.0001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9000380-03.2020.8.21.0067</t>
+          <t>0342323-65.2012.8.21.0001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -966,322 +966,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>14/09/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5002033-11.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>9000365-34.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>09/09/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>5002037-48.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>9000624-29.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>13/11/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5002090-63.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9001254-22.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>11/12/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5002030-56.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9000405-16.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>18/09/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5002091-48.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>9001270-73.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>17/12/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>5006127-55.2022.8.21.0059</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5001247-88.2020.8.21.0059</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Originário</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>19/09/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5092615-95.2019.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>9015530-62.2019.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>04/04/2019</t>
+          <t>24/10/2012</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,42 +616,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5026797-60.2023.8.21.0001</t>
+          <t>5001404-20.2017.8.21.0042</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5030835-67.2013.8.21.0001</t>
+          <t>0059732-52.2019.8.21.9000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Originário</t>
+          <t>Relacionado na TR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sem dados de processo originário 2</t>
+          <t>9000985-29.2017.8.21.0042</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Nulo</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16/02/2023</t>
+          <t>27/09/2017</t>
         </is>
       </c>
     </row>
@@ -661,312 +661,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5035699-12.2017.8.21.0001</t>
+          <t>5001392-06.2017.8.21.0042</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0161621-51.2017.8.21.0001</t>
+          <t>0038543-18.2019.8.21.9000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Relacionado na TR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sem dados de processo originário 2</t>
+          <t>9001086-66.2017.8.21.0042</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Nulo</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31/08/2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5000273-46.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0420275-57.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>07/12/2011</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5000274-31.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0413893-48.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>01/12/2011</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5004401-12.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0376983-22.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>07/11/2011</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>5000256-73.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0023506-26.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>24/01/2012</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5000271-42.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0351565-48.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>31/10/2012</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>5000293-03.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0342323-65.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>24/10/2012</t>
+          <t>05/10/2017</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5008633-12.2022.8.21.4001</t>
+          <t>5216421-65.2022.8.21.0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5002299-64.2019.8.21.4001</t>
+          <t>5042179-98.2020.8.21.0001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14/10/2022</t>
+          <t>02/12/2022</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5006127-55.2022.8.21.0059</t>
+          <t>5006597-19.2022.8.21.0049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5001247-88.2020.8.21.0059</t>
+          <t>5002821-79.2020.8.21.0049</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>19/09/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
     </row>
@@ -571,17 +571,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5157435-21.2022.8.21.0001</t>
+          <t>5002093-18.2019.8.21.0067</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5032648-85.2020.8.21.0001</t>
+          <t>9000698-20.2019.8.21.0067</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Originário</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>19/06/2019</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5001404-20.2017.8.21.0042</t>
+          <t>5002094-03.2019.8.21.0067</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0059732-52.2019.8.21.9000</t>
+          <t>9001132-09.2019.8.21.0067</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Relacionado na TR</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9000985-29.2017.8.21.0042</t>
+          <t>Sem dados de processo originário 2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>27/09/2017</t>
+          <t>21/10/2019</t>
         </is>
       </c>
     </row>
@@ -661,42 +661,852 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5001392-06.2017.8.21.0042</t>
+          <t>5000997-02.2018.8.21.0067</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0038543-18.2019.8.21.9000</t>
+          <t>9000692-47.2018.8.21.0067</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>26/10/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5002039-18.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9000407-83.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>18/09/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5000998-84.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9000870-93.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>04/12/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5002095-85.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9000724-18.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>21/06/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5002096-70.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9000532-85.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>04/06/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5002097-55.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9000464-38.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>03/06/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5053427-32.2018.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0046017-06.2020.8.21.9000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Relacionado na TR</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9001086-66.2017.8.21.0042</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9068801-20.2018.8.21.0001</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Migrado</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>05/10/2017</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>29/11/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5035085-12.2014.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0395366-43.2014.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>24/11/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>09/05/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>09/05/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>09/05/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>09/05/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>09/05/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5014763-10.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3103141-73.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>25/11/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5014763-10.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3103141-73.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>25/11/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5014763-10.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3103141-73.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>25/11/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5029278-74.2015.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0199864-35.2015.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10/08/2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5002539-45.2007.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3076071-57.2005.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Originário</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0183341-26.2007.8.21.0001</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>31/01/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5020879-61.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0026384-42.2012.8.21.3001</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5063823-92.2023.8.21.0001</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Relacionado</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5063870-66.2023.8.21.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Relacionado</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>04/09/2012</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,17 +526,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5006597-19.2022.8.21.0049</t>
+          <t>5002825-34.2018.8.21.0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5002821-79.2020.8.21.0049</t>
+          <t>9000482-94.2018.8.21.0002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Originário</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14/10/2022</t>
+          <t>27/03/2018</t>
         </is>
       </c>
     </row>
@@ -571,17 +571,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5002093-18.2019.8.21.0067</t>
+          <t>5010408-92.2022.8.21.0014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9000698-20.2019.8.21.0067</t>
+          <t>5002665-02.2020.8.21.0014</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>19/06/2019</t>
+          <t>02/12/2022</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5002094-03.2019.8.21.0067</t>
+          <t>5034684-18.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9001132-09.2019.8.21.0067</t>
+          <t>0111143-49.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21/10/2019</t>
+          <t>15/04/2011</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5000997-02.2018.8.21.0067</t>
+          <t>5029337-62.2015.8.21.0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9000692-47.2018.8.21.0067</t>
+          <t>0090773-10.2015.8.21.0001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>26/10/2018</t>
+          <t>17/04/2015</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5002039-18.2020.8.21.0067</t>
+          <t>5039775-79.2017.8.21.0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9000407-83.2020.8.21.0067</t>
+          <t>0039384-15.2017.8.21.0001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18/09/2020</t>
+          <t>14/03/2017</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5000998-84.2018.8.21.0067</t>
+          <t>5029499-57.2015.8.21.0001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9000870-93.2018.8.21.0067</t>
+          <t>0136341-49.2015.8.21.0001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>04/12/2018</t>
+          <t>08/06/2015</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5002095-85.2019.8.21.0067</t>
+          <t>5028728-21.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9000724-18.2019.8.21.0067</t>
+          <t>0344069-02.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21/06/2019</t>
+          <t>19/10/2011</t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5002096-70.2019.8.21.0067</t>
+          <t>5028728-21.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9000532-85.2019.8.21.0067</t>
+          <t>0344069-02.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>04/06/2019</t>
+          <t>19/10/2011</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5002097-55.2019.8.21.0067</t>
+          <t>5001806-14.2020.8.21.0134</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9000464-38.2019.8.21.0067</t>
+          <t>9000364-42.2020.8.21.0134</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>06/07/2020</t>
         </is>
       </c>
     </row>
@@ -931,27 +931,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5053427-32.2018.8.21.0001</t>
+          <t>5032111-07.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0046017-06.2020.8.21.9000</t>
+          <t>0111095-90.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Relacionado na TR</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9068801-20.2018.8.21.0001</t>
+          <t>Sem dados de processo originário 2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>29/11/2018</t>
+          <t>15/04/2011</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5035085-12.2014.8.21.0001</t>
+          <t>5033921-46.2013.8.21.0001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0395366-43.2014.8.21.0001</t>
+          <t>0037413-34.2013.8.21.0001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>24/11/2014</t>
+          <t>13/02/2013</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5033938-82.2013.8.21.0001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0084903-52.2013.8.21.0001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>28/03/2013</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5033938-82.2013.8.21.0001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0084903-52.2013.8.21.0001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>28/03/2013</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5034971-78.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0108702-95.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>13/04/2011</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5034971-78.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0108702-95.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>13/04/2011</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5039859-80.2017.8.21.0001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0129049-42.2017.8.21.0001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>06/08/2015</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5014763-10.2010.8.21.0001</t>
+          <t>5015478-52.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3103141-73.2010.8.21.0001</t>
+          <t>2626731-39.2010.8.21.0001</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25/11/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5014763-10.2010.8.21.0001</t>
+          <t>5015600-65.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3103141-73.2010.8.21.0001</t>
+          <t>0155171-39.2010.8.21.0001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25/11/2010</t>
+          <t>19/01/2010</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5014763-10.2010.8.21.0001</t>
+          <t>5034891-17.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3103141-73.2010.8.21.0001</t>
+          <t>0243442-87.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>25/11/2010</t>
+          <t>28/07/2011</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5029278-74.2015.8.21.0001</t>
+          <t>5034891-17.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0199864-35.2015.8.21.0001</t>
+          <t>0243442-87.2011.8.21.0001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10/08/2015</t>
+          <t>28/07/2011</t>
         </is>
       </c>
     </row>
@@ -1426,27 +1426,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5002539-45.2007.8.21.0001</t>
+          <t>5001001-39.2018.8.21.0067</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3076071-57.2005.8.21.0001</t>
+          <t>9000812-90.2018.8.21.0067</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Originário</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0183341-26.2007.8.21.0001</t>
+          <t>Sem dados de processo originário 2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>31/01/2007</t>
+          <t>29/11/2018</t>
         </is>
       </c>
     </row>
@@ -1471,42 +1471,357 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5020879-61.2012.8.21.0001</t>
+          <t>5002047-92.2020.8.21.0067</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0026384-42.2012.8.21.3001</t>
+          <t>9000436-36.2020.8.21.0067</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5063823-92.2023.8.21.0001</t>
+          <t>Sem dados de processo originário 2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Relacionado</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5063870-66.2023.8.21.0001</t>
+          <t>Sem dados de processo originário 3</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Relacionado</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>04/09/2012</t>
+          <t>24/09/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5002099-25.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9000760-60.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>27/06/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5001002-24.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9000850-05.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>04/12/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5002100-10.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9000786-58.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>03/07/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5002101-92.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9000444-47.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>31/05/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5002102-77.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9000756-23.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>27/06/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5002103-62.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9000754-53.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>27/06/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5002104-47.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9000700-87.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>19/06/2019</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5216421-65.2022.8.21.0001</t>
+          <t>5010408-92.2022.8.21.0014</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5042179-98.2020.8.21.0001</t>
+          <t>5002665-02.2020.8.21.0014</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -526,27 +526,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5018241-75.2020.8.21.0033</t>
+          <t>5217136-10.2022.8.21.0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0005769-61.2021.8.21.9000</t>
+          <t>5004829-76.2020.8.21.0001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Relacionado na TR</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9000749-02.2020.8.21.0033</t>
+          <t>Sem dados de processo originário 2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11/02/2020</t>
+          <t>05/12/2022</t>
         </is>
       </c>
     </row>
@@ -571,17 +571,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5010408-92.2022.8.21.0014</t>
+          <t>5006931-56.2021.8.21.0027</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5002665-02.2020.8.21.0014</t>
+          <t>Sem dados de processo originário 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Originário</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>02/12/2022</t>
+          <t>14/04/2021</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5006227-49.2006.8.21.0001</t>
+          <t>5000168-66.2021.8.21.0115</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1337741-15.2006.8.21.0001</t>
+          <t>5000168-66.2021.8.21.0115/T</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Relacionado no 2o. grau</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>07/04/2021</t>
         </is>
       </c>
     </row>
@@ -661,27 +661,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5018241-75.2020.8.21.0033</t>
+          <t>5001809-74.2017.8.21.0036</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0005769-61.2021.8.21.9000</t>
+          <t>9002336-55.2017.8.21.0036</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Relacionado na TR</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9000749-02.2020.8.21.0033</t>
+          <t>Sem dados de processo originário 2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11/02/2020</t>
+          <t>23/10/2017</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5217136-10.2022.8.21.0001</t>
+          <t>5002735-26.2018.8.21.0002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5004829-76.2020.8.21.0001</t>
+          <t>9000271-58.2018.8.21.0002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Originário</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>09/03/2018</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5093406-64.2019.8.21.0001</t>
+          <t>5002731-86.2018.8.21.0002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9018514-19.2019.8.21.0001</t>
+          <t>9000433-53.2018.8.21.0002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>27/03/2018</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5005098-47.2023.8.21.0022</t>
+          <t>5035108-55.2014.8.21.0001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9003987-96.2019.8.21.0022</t>
+          <t>0028693-44.2014.8.21.0001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Originário</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>28/02/2023</t>
+          <t>28/01/2014</t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5093438-69.2019.8.21.0001</t>
+          <t>5035108-55.2014.8.21.0001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9020456-86.2019.8.21.0001</t>
+          <t>0028693-44.2014.8.21.0001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>28/01/2014</t>
         </is>
       </c>
     </row>
@@ -886,42 +886,1032 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5093440-39.2019.8.21.0001</t>
+          <t>5035108-55.2014.8.21.0001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9021532-48.2019.8.21.0001</t>
+          <t>0028693-44.2014.8.21.0001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>28/01/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5035108-55.2014.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0028693-44.2014.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>28/01/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5009658-08.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9003683-34.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Migrado</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>24/04/2019</t>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>30/05/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5002111-39.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9000482-59.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>03/06/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5002115-76.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9001255-07.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>11/12/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5001005-76.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9000856-12.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>04/12/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5002061-76.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9000182-63.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5002116-61.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9000433-18.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>31/05/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5002062-61.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9000400-91.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>17/09/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5001006-61.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9000817-15.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>29/11/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5002063-46.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9000178-26.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5002065-16.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9000388-77.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>16/09/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5001007-46.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9000790-32.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>27/11/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5002068-68.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9000458-94.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>05/10/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5000282-08.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0302109-66.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>18/08/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5034992-20.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0303805-06.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>13/09/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5008342-82.2022.8.21.0033</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9001156-08.2020.8.21.0033</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Originário</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>22/04/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5009659-90.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9005551-47.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>31/07/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5029547-06.2022.8.21.0022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5007960-93.2020.8.21.0022</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Originário</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>28/09/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5002741-33.2018.8.21.0002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9000456-96.2018.8.21.0002</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>27/03/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5008759-20.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0148964-87.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>16/05/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5019558-25.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0218063-47.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>22/06/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5125809-52.2020.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>9001529-57.2020.8.21.0027</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Sem dados de processo originário 3</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Nulo</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,17 +661,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5001809-74.2017.8.21.0036</t>
+          <t>5015948-83.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9002336-55.2017.8.21.0036</t>
+          <t>1999701-78.2010.8.21.0001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>23/10/2017</t>
+          <t>03/08/2010</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5002735-26.2018.8.21.0002</t>
+          <t>5015948-83.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9000271-58.2018.8.21.0002</t>
+          <t>1999701-78.2010.8.21.0001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>03/08/2010</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5002731-86.2018.8.21.0002</t>
+          <t>5015948-83.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9000433-53.2018.8.21.0002</t>
+          <t>1999701-78.2010.8.21.0001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>27/03/2018</t>
+          <t>03/08/2010</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5035108-55.2014.8.21.0001</t>
+          <t>5008342-82.2022.8.21.0033</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0028693-44.2014.8.21.0001</t>
+          <t>9001156-08.2020.8.21.0033</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>28/01/2014</t>
+          <t>22/04/2022</t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5035108-55.2014.8.21.0001</t>
+          <t>5029547-06.2022.8.21.0022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0028693-44.2014.8.21.0001</t>
+          <t>5007960-93.2020.8.21.0022</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>28/01/2014</t>
+          <t>28/09/2022</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5035108-55.2014.8.21.0001</t>
+          <t>5002368-19.2021.8.21.0027</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0028693-44.2014.8.21.0001</t>
+          <t>Sem dados de processo originário 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>28/01/2014</t>
+          <t>09/02/2021</t>
         </is>
       </c>
     </row>
@@ -931,17 +931,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5035108-55.2014.8.21.0001</t>
+          <t>5016829-79.2019.8.21.0022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0028693-44.2014.8.21.0001</t>
+          <t>9000968-82.2019.8.21.0022</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>28/01/2014</t>
+          <t>19/02/2019</t>
         </is>
       </c>
     </row>
@@ -976,29 +976,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5009658-08.2018.8.21.0022</t>
+          <t>5016824-57.2019.8.21.0022</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9003683-34.2018.8.21.0022</t>
+          <t>0010252-71.2020.8.21.9000/T</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Relacionado no 2o. grau</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9007972-73.2019.8.21.0022</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Migrado</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>Sem dados de processo originário 3</t>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>30/05/2018</t>
+          <t>01/11/2019</t>
         </is>
       </c>
     </row>
@@ -1021,29 +1021,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5002111-39.2019.8.21.0067</t>
+          <t>5009671-07.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9000482-59.2019.8.21.0067</t>
+          <t>0006807-45.2020.8.21.9000/T</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Relacionado no 2o. grau</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9009420-18.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Migrado</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>Sem dados de processo originário 3</t>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>03/12/2018</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5002115-76.2019.8.21.0067</t>
+          <t>5009668-52.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9001255-07.2019.8.21.0067</t>
+          <t>9009424-55.2018.8.21.0022</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11/12/2019</t>
+          <t>03/12/2018</t>
         </is>
       </c>
     </row>
@@ -1111,29 +1111,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5001005-76.2018.8.21.0067</t>
+          <t>5009667-67.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9000856-12.2018.8.21.0067</t>
+          <t>0014717-60.2019.8.21.9000/T</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Relacionado no 2o. grau</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9008752-47.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Migrado</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>Sem dados de processo originário 3</t>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>04/12/2018</t>
+          <t>08/11/2018</t>
         </is>
       </c>
     </row>
@@ -1156,29 +1156,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5002061-76.2020.8.21.0067</t>
+          <t>5009665-97.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9000182-63.2020.8.21.0067</t>
+          <t>0015900-66.2019.8.21.9000/T</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Relacionado no 2o. grau</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9009358-75.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Migrado</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>Sem dados de processo originário 3</t>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>06/04/2020</t>
+          <t>30/11/2018</t>
         </is>
       </c>
     </row>
@@ -1201,29 +1201,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5002116-61.2019.8.21.0067</t>
+          <t>5009663-30.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9000433-18.2019.8.21.0067</t>
+          <t>0009759-31.2019.8.21.9000/T</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Relacionado no 2o. grau</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9007912-37.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Migrado</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>Sem dados de processo originário 3</t>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>31/05/2019</t>
+          <t>11/10/2018</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5002062-61.2020.8.21.0067</t>
+          <t>5001397-28.2017.8.21.0042</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9000400-91.2020.8.21.0067</t>
+          <t>9001059-83.2017.8.21.0042</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>17/09/2020</t>
+          <t>29/09/2017</t>
         </is>
       </c>
     </row>
@@ -1291,17 +1291,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5001006-61.2018.8.21.0067</t>
+          <t>5072049-91.2020.8.21.0001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9000817-15.2018.8.21.0067</t>
+          <t>3221931-89.2005.8.21.0001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1326,592 +1326,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>29/11/2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>5002063-46.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>9000178-26.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>06/04/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>5002065-16.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>9000388-77.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>16/09/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>5001007-46.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>9000790-32.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>27/11/2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>5002068-68.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>9000458-94.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>05/10/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>5000282-08.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0302109-66.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>18/08/2011</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>5034992-20.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0303805-06.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>13/09/2012</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>5008342-82.2022.8.21.0033</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>9001156-08.2020.8.21.0033</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Originário</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>22/04/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>5009659-90.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9005551-47.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>31/07/2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>5029547-06.2022.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>5007960-93.2020.8.21.0022</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Originário</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>28/09/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>5002741-33.2018.8.21.0002</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>9000456-96.2018.8.21.0002</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>27/03/2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>5008759-20.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0148964-87.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>16/05/2011</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>5019558-25.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0218063-47.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>22/06/2011</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>5125809-52.2020.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>9001529-57.2020.8.21.0027</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
+          <t>22/10/2004</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Lista de notas.xlsx
+++ b/Correcao EPROC/Lista de notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5010408-92.2022.8.21.0014</t>
+          <t>5202537-66.2022.8.21.0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5002665-02.2020.8.21.0014</t>
+          <t>5012652-04.2020.8.21.0001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>02/12/2022</t>
+          <t>11/11/2022</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5217136-10.2022.8.21.0001</t>
+          <t>5168190-07.2022.8.21.0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5004829-76.2020.8.21.0001</t>
+          <t>5016585-82.2020.8.21.0001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
     </row>
@@ -571,17 +571,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5006931-56.2021.8.21.0027</t>
+          <t>5001327-37.2021.8.21.0085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sem dados de processo originário 1</t>
+          <t>9000091-79.2021.8.21.0085</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nulo</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14/04/2021</t>
+          <t>13/05/2021</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5000168-66.2021.8.21.0115</t>
+          <t>5031950-45.2021.8.21.0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5000168-66.2021.8.21.0115/T</t>
+          <t>Sem dados de processo originário 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Relacionado no 2o. grau</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>07/04/2021</t>
+          <t>30/03/2021</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5015948-83.2010.8.21.0001</t>
+          <t>5082691-55.2022.8.21.0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1999701-78.2010.8.21.0001</t>
+          <t>5125632-72.2022.8.21.7000/T</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Relacionado no 2o. grau</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>03/08/2010</t>
+          <t>23/05/2022</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5015948-83.2010.8.21.0001</t>
+          <t>5003574-61.2017.8.21.0010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1999701-78.2010.8.21.0001</t>
+          <t>0020708-89.2017.8.21.0010</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sem dados de processo originário 2</t>
+          <t>5024835-77.2020.8.21.0010</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nulo</t>
+          <t>Apenso</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>03/08/2010</t>
+          <t>11/05/2017</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5015948-83.2010.8.21.0001</t>
+          <t>5008633-12.2022.8.21.4001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1999701-78.2010.8.21.0001</t>
+          <t>5002299-64.2019.8.21.4001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>03/08/2010</t>
+          <t>14/10/2022</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5008342-82.2022.8.21.0033</t>
+          <t>5008633-12.2022.8.21.4001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9001156-08.2020.8.21.0033</t>
+          <t>5002299-64.2019.8.21.4001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5029547-06.2022.8.21.0022</t>
+          <t>5011085-85.2022.8.21.3001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5007960-93.2020.8.21.0022</t>
+          <t>5000119-97.2021.8.21.3001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sem dados de processo originário 2</t>
+          <t>5025664-35.2023.8.21.7000/T</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nulo</t>
+          <t>Relacionado no 2o. grau</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>28/09/2022</t>
+          <t>05/10/2022</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5002368-19.2021.8.21.0027</t>
+          <t>5010628-20.2022.8.21.0005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sem dados de processo originário 1</t>
+          <t>5003354-73.2020.8.21.0005</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nulo</t>
+          <t>Originário</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -921,412 +921,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>09/02/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>5016829-79.2019.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>9000968-82.2019.8.21.0022</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>19/02/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5016824-57.2019.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0010252-71.2020.8.21.9000/T</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Relacionado no 2o. grau</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9007972-73.2019.8.21.0022</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>01/11/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>5009671-07.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0006807-45.2020.8.21.9000/T</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Relacionado no 2o. grau</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9009420-18.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>03/12/2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5009668-52.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9009424-55.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>03/12/2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5009667-67.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0014717-60.2019.8.21.9000/T</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Relacionado no 2o. grau</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9008752-47.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>08/11/2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5009665-97.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0015900-66.2019.8.21.9000/T</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Relacionado no 2o. grau</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9009358-75.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>30/11/2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>5009663-30.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0009759-31.2019.8.21.9000/T</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Relacionado no 2o. grau</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9007912-37.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>11/10/2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5001397-28.2017.8.21.0042</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>9001059-83.2017.8.21.0042</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>29/09/2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>5072049-91.2020.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3221931-89.2005.8.21.0001</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 2</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Sem dados de processo originário 3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Nulo</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>22/10/2004</t>
+          <t>13/09/2022</t>
         </is>
       </c>
     </row>
